--- a/01_開発プロセス/02_要求対応/電流センサ検討.xlsx
+++ b/01_開発プロセス/02_要求対応/電流センサ検討.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>電流センサ検討</t>
     <rPh sb="0" eb="2">
@@ -39,6 +39,44 @@
   </si>
   <si>
     <t>SPI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* これを左右にとりつけ、全モータの三相電流を計測する</t>
+    <rPh sb="5" eb="7">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サンソウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>デンリュウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケイソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* FPGAのピン数が足りるか、は未検討&amp;懸念事項</t>
+    <rPh sb="9" eb="10">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ミケントウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケネン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -100,15 +138,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -116,11 +160,8 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2477,284 +2518,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:CO27"/>
+  <dimension ref="E3:CW27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="40" width="1.875" style="2"/>
-    <col min="41" max="41" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="90" width="1.875" style="2"/>
-    <col min="91" max="93" width="3.5" style="2" customWidth="1"/>
-    <col min="94" max="16384" width="1.875" style="2"/>
+    <col min="1" max="40" width="1.875" style="1"/>
+    <col min="41" max="41" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="90" width="1.875" style="1"/>
+    <col min="91" max="93" width="3.5" style="1" customWidth="1"/>
+    <col min="94" max="16384" width="1.875" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="5:93" x14ac:dyDescent="0.15">
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-      <c r="AY3" s="5"/>
-      <c r="AZ3" s="5"/>
-      <c r="BA3" s="5"/>
-      <c r="BB3" s="5"/>
-      <c r="BC3" s="5"/>
-      <c r="BD3" s="5"/>
-      <c r="BE3" s="5"/>
-      <c r="BF3" s="5"/>
-      <c r="BG3" s="5"/>
-      <c r="BH3" s="5"/>
-      <c r="BI3" s="5"/>
-      <c r="BJ3" s="5"/>
-      <c r="BK3" s="5"/>
-      <c r="BL3" s="5"/>
-      <c r="BM3" s="5"/>
-      <c r="BN3" s="5"/>
-      <c r="BO3" s="5"/>
-      <c r="BP3" s="5"/>
-      <c r="BQ3" s="5"/>
-      <c r="BR3" s="5"/>
-      <c r="BS3" s="5"/>
-      <c r="BT3" s="5"/>
-      <c r="BU3" s="5"/>
-      <c r="BV3" s="5"/>
-      <c r="BW3" s="5"/>
-      <c r="BX3" s="5"/>
-      <c r="BY3" s="5"/>
-      <c r="BZ3" s="5"/>
-      <c r="CA3" s="5"/>
-      <c r="CB3" s="5"/>
-      <c r="CC3" s="5"/>
-      <c r="CD3" s="5"/>
-      <c r="CE3" s="5"/>
-      <c r="CF3" s="5"/>
-      <c r="CG3" s="5"/>
-      <c r="CH3" s="5"/>
-      <c r="CI3" s="5"/>
-      <c r="CJ3" s="5"/>
-      <c r="CK3" s="5"/>
-      <c r="CL3" s="5"/>
-      <c r="CM3" s="5"/>
-      <c r="CN3" s="5"/>
-      <c r="CO3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="4"/>
+      <c r="BH3" s="4"/>
+      <c r="BI3" s="4"/>
+      <c r="BJ3" s="4"/>
+      <c r="BK3" s="4"/>
+      <c r="BL3" s="4"/>
+      <c r="BM3" s="4"/>
+      <c r="BN3" s="4"/>
+      <c r="BO3" s="4"/>
+      <c r="BP3" s="4"/>
+      <c r="BQ3" s="4"/>
+      <c r="BR3" s="4"/>
+      <c r="BS3" s="4"/>
+      <c r="BT3" s="4"/>
+      <c r="BU3" s="4"/>
+      <c r="BV3" s="4"/>
+      <c r="BW3" s="4"/>
+      <c r="BX3" s="4"/>
+      <c r="BY3" s="4"/>
+      <c r="BZ3" s="4"/>
+      <c r="CA3" s="4"/>
+      <c r="CB3" s="4"/>
+      <c r="CC3" s="4"/>
+      <c r="CD3" s="4"/>
+      <c r="CE3" s="4"/>
+      <c r="CF3" s="4"/>
+      <c r="CG3" s="4"/>
+      <c r="CH3" s="4"/>
+      <c r="CI3" s="4"/>
+      <c r="CJ3" s="4"/>
+      <c r="CK3" s="4"/>
+      <c r="CL3" s="4"/>
+      <c r="CM3" s="4"/>
+      <c r="CN3" s="4"/>
+      <c r="CO3" s="4"/>
     </row>
     <row r="4" spans="5:93" x14ac:dyDescent="0.15">
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="5"/>
-      <c r="AZ4" s="5"/>
-      <c r="BA4" s="5"/>
-      <c r="BB4" s="5"/>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="5"/>
-      <c r="BE4" s="5"/>
-      <c r="BF4" s="5"/>
-      <c r="BG4" s="5"/>
-      <c r="BH4" s="5"/>
-      <c r="BI4" s="5"/>
-      <c r="BJ4" s="5"/>
-      <c r="BK4" s="5"/>
-      <c r="BL4" s="5"/>
-      <c r="BM4" s="5"/>
-      <c r="BN4" s="5"/>
-      <c r="BO4" s="5"/>
-      <c r="BP4" s="5"/>
-      <c r="BQ4" s="5"/>
-      <c r="BR4" s="5"/>
-      <c r="BS4" s="5"/>
-      <c r="BT4" s="5"/>
-      <c r="BU4" s="5"/>
-      <c r="BV4" s="5"/>
-      <c r="BW4" s="5"/>
-      <c r="BX4" s="5"/>
-      <c r="BY4" s="5"/>
-      <c r="BZ4" s="5"/>
-      <c r="CA4" s="5"/>
-      <c r="CB4" s="5"/>
-      <c r="CC4" s="5"/>
-      <c r="CD4" s="5"/>
-      <c r="CE4" s="5"/>
-      <c r="CF4" s="5"/>
-      <c r="CG4" s="5"/>
-      <c r="CH4" s="5"/>
-      <c r="CI4" s="5"/>
-      <c r="CJ4" s="5"/>
-      <c r="CK4" s="5"/>
-      <c r="CL4" s="5"/>
-      <c r="CM4" s="5"/>
-      <c r="CN4" s="5"/>
-      <c r="CO4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4"/>
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="4"/>
+      <c r="BQ4" s="4"/>
+      <c r="BR4" s="4"/>
+      <c r="BS4" s="4"/>
+      <c r="BT4" s="4"/>
+      <c r="BU4" s="4"/>
+      <c r="BV4" s="4"/>
+      <c r="BW4" s="4"/>
+      <c r="BX4" s="4"/>
+      <c r="BY4" s="4"/>
+      <c r="BZ4" s="4"/>
+      <c r="CA4" s="4"/>
+      <c r="CB4" s="4"/>
+      <c r="CC4" s="4"/>
+      <c r="CD4" s="4"/>
+      <c r="CE4" s="4"/>
+      <c r="CF4" s="4"/>
+      <c r="CG4" s="4"/>
+      <c r="CH4" s="4"/>
+      <c r="CI4" s="4"/>
+      <c r="CJ4" s="4"/>
+      <c r="CK4" s="4"/>
+      <c r="CL4" s="4"/>
+      <c r="CM4" s="4"/>
+      <c r="CN4" s="4"/>
+      <c r="CO4" s="4"/>
     </row>
     <row r="5" spans="5:93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="BZ5" s="3" t="s">
+      <c r="BZ5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="CA5" s="3"/>
-      <c r="CB5" s="3"/>
-      <c r="CC5" s="3"/>
-      <c r="CD5" s="3"/>
-      <c r="CE5" s="3"/>
-      <c r="CF5" s="3"/>
-      <c r="CG5" s="3"/>
-      <c r="CH5" s="3"/>
-      <c r="CI5" s="3"/>
-      <c r="CJ5" s="3"/>
-      <c r="CK5" s="3"/>
-      <c r="CL5" s="3"/>
-      <c r="CM5" s="3"/>
-      <c r="CN5" s="3"/>
-      <c r="CO5" s="3"/>
+      <c r="CA5" s="5"/>
+      <c r="CB5" s="5"/>
+      <c r="CC5" s="5"/>
+      <c r="CD5" s="5"/>
+      <c r="CE5" s="5"/>
+      <c r="CF5" s="5"/>
+      <c r="CG5" s="5"/>
+      <c r="CH5" s="5"/>
+      <c r="CI5" s="5"/>
+      <c r="CJ5" s="5"/>
+      <c r="CK5" s="5"/>
+      <c r="CL5" s="5"/>
+      <c r="CM5" s="5"/>
+      <c r="CN5" s="5"/>
+      <c r="CO5" s="5"/>
     </row>
     <row r="6" spans="5:93" x14ac:dyDescent="0.15">
-      <c r="BZ6" s="4">
+      <c r="BZ6" s="6">
         <v>42638</v>
       </c>
-      <c r="CA6" s="4"/>
-      <c r="CB6" s="4"/>
-      <c r="CC6" s="4"/>
-      <c r="CD6" s="4"/>
-      <c r="CE6" s="4"/>
-      <c r="CF6" s="4"/>
-      <c r="CG6" s="4"/>
-      <c r="CH6" s="4"/>
-      <c r="CI6" s="4"/>
-      <c r="CJ6" s="4"/>
-      <c r="CK6" s="4"/>
-      <c r="CL6" s="4"/>
-      <c r="CM6" s="4"/>
-      <c r="CN6" s="4"/>
-      <c r="CO6" s="4"/>
+      <c r="CA6" s="6"/>
+      <c r="CB6" s="6"/>
+      <c r="CC6" s="6"/>
+      <c r="CD6" s="6"/>
+      <c r="CE6" s="6"/>
+      <c r="CF6" s="6"/>
+      <c r="CG6" s="6"/>
+      <c r="CH6" s="6"/>
+      <c r="CI6" s="6"/>
+      <c r="CJ6" s="6"/>
+      <c r="CK6" s="6"/>
+      <c r="CL6" s="6"/>
+      <c r="CM6" s="6"/>
+      <c r="CN6" s="6"/>
+      <c r="CO6" s="6"/>
     </row>
     <row r="12" spans="5:93" x14ac:dyDescent="0.15">
-      <c r="Y12" s="1" t="s">
+      <c r="Y12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
     </row>
-    <row r="25" spans="40:59" x14ac:dyDescent="0.15">
-      <c r="AT25" s="1" t="s">
+    <row r="18" spans="40:101" x14ac:dyDescent="0.15">
+      <c r="AZ18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA18" s="7"/>
+      <c r="BB18" s="7"/>
+      <c r="BC18" s="7"/>
+      <c r="BD18" s="7"/>
+      <c r="BE18" s="7"/>
+      <c r="BF18" s="7"/>
+      <c r="BG18" s="7"/>
+      <c r="BH18" s="7"/>
+      <c r="BI18" s="7"/>
+      <c r="BJ18" s="7"/>
+      <c r="BK18" s="7"/>
+      <c r="BL18" s="7"/>
+      <c r="BM18" s="7"/>
+      <c r="BN18" s="7"/>
+      <c r="BO18" s="7"/>
+      <c r="BP18" s="7"/>
+      <c r="BQ18" s="7"/>
+      <c r="BR18" s="7"/>
+      <c r="BS18" s="7"/>
+      <c r="BT18" s="7"/>
+      <c r="BU18" s="7"/>
+      <c r="BV18" s="7"/>
+      <c r="BW18" s="7"/>
+      <c r="BX18" s="7"/>
+      <c r="BY18" s="7"/>
+      <c r="BZ18" s="7"/>
+      <c r="CA18" s="7"/>
+      <c r="CB18" s="7"/>
+      <c r="CC18" s="7"/>
+      <c r="CD18" s="7"/>
+      <c r="CE18" s="7"/>
+      <c r="CF18" s="7"/>
+      <c r="CG18" s="7"/>
+      <c r="CH18" s="7"/>
+      <c r="CI18" s="7"/>
+      <c r="CJ18" s="7"/>
+      <c r="CK18" s="7"/>
+      <c r="CL18" s="7"/>
+      <c r="CM18" s="7"/>
+      <c r="CN18" s="7"/>
+      <c r="CO18" s="7"/>
+      <c r="CP18" s="7"/>
+      <c r="CQ18" s="7"/>
+      <c r="CR18" s="7"/>
+      <c r="CS18" s="7"/>
+      <c r="CT18" s="7"/>
+      <c r="CU18" s="7"/>
+      <c r="CV18" s="7"/>
+      <c r="CW18" s="7"/>
+    </row>
+    <row r="19" spans="40:101" x14ac:dyDescent="0.15">
+      <c r="AZ19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA19" s="7"/>
+      <c r="BB19" s="7"/>
+      <c r="BC19" s="7"/>
+      <c r="BD19" s="7"/>
+      <c r="BE19" s="7"/>
+      <c r="BF19" s="7"/>
+      <c r="BG19" s="7"/>
+      <c r="BH19" s="7"/>
+      <c r="BI19" s="7"/>
+      <c r="BJ19" s="7"/>
+      <c r="BK19" s="7"/>
+      <c r="BL19" s="7"/>
+      <c r="BM19" s="7"/>
+      <c r="BN19" s="7"/>
+      <c r="BO19" s="7"/>
+      <c r="BP19" s="7"/>
+      <c r="BQ19" s="7"/>
+      <c r="BR19" s="7"/>
+      <c r="BS19" s="7"/>
+      <c r="BT19" s="7"/>
+      <c r="BU19" s="7"/>
+      <c r="BV19" s="7"/>
+      <c r="BW19" s="7"/>
+      <c r="BX19" s="7"/>
+      <c r="BY19" s="7"/>
+      <c r="BZ19" s="7"/>
+      <c r="CA19" s="7"/>
+      <c r="CB19" s="7"/>
+      <c r="CC19" s="7"/>
+      <c r="CD19" s="7"/>
+      <c r="CE19" s="7"/>
+      <c r="CF19" s="7"/>
+      <c r="CG19" s="7"/>
+      <c r="CH19" s="7"/>
+      <c r="CI19" s="7"/>
+      <c r="CJ19" s="7"/>
+      <c r="CK19" s="7"/>
+      <c r="CL19" s="7"/>
+      <c r="CM19" s="7"/>
+      <c r="CN19" s="7"/>
+      <c r="CO19" s="7"/>
+      <c r="CP19" s="7"/>
+      <c r="CQ19" s="7"/>
+      <c r="CR19" s="7"/>
+      <c r="CS19" s="7"/>
+      <c r="CT19" s="7"/>
+      <c r="CU19" s="7"/>
+      <c r="CV19" s="7"/>
+      <c r="CW19" s="7"/>
+    </row>
+    <row r="25" spans="40:101" x14ac:dyDescent="0.15">
+      <c r="AT25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AU25" s="1"/>
-      <c r="AV25" s="1"/>
-      <c r="AW25" s="1"/>
-      <c r="AX25" s="1"/>
-      <c r="AY25" s="1"/>
-      <c r="AZ25" s="1"/>
-      <c r="BA25" s="1"/>
-      <c r="BB25" s="1"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
     </row>
-    <row r="27" spans="40:59" x14ac:dyDescent="0.15">
-      <c r="AN27" s="1">
+    <row r="27" spans="40:101" x14ac:dyDescent="0.15">
+      <c r="AN27" s="3">
         <v>6</v>
       </c>
-      <c r="AO27" s="1"/>
-      <c r="BG27" s="6" t="s">
+      <c r="AO27" s="3"/>
+      <c r="BG27" s="2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="AN27:AO27"/>
     <mergeCell ref="E3:CO4"/>
     <mergeCell ref="BZ5:CO5"/>
     <mergeCell ref="BZ6:CO6"/>
     <mergeCell ref="Y12:AE12"/>
     <mergeCell ref="AT25:BB25"/>
+    <mergeCell ref="AZ18:CW18"/>
+    <mergeCell ref="AZ19:CW19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_開発プロセス/02_要求対応/電流センサ検討.xlsx
+++ b/01_開発プロセス/02_要求対応/電流センサ検討.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>電流センサ検討</t>
     <rPh sb="0" eb="2">
@@ -27,10 +27,6 @@
   </si>
   <si>
     <t>ob-tmp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ACS712</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -79,12 +75,134 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ACS712</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/datasheets/BreakoutBoards/0712.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、全チャンネル同時サンプリングが可能である。</t>
+    <rPh sb="2" eb="3">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、500kHz周期でAD変換が可能である。</t>
+    <rPh sb="8" eb="10">
+      <t>シュウキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>は、1MHzのSPI通信としたとき、変換速度は</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数百us程度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>か。</t>
+    </r>
+    <rPh sb="10" eb="12">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヒャク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>テイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>の応答速度は、      C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">(nF) = 1 nFのとき </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>7.7us</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>オウトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +233,45 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -124,7 +281,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -132,13 +289,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -163,8 +332,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -328,6 +507,7 @@
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
+          <a:headEnd type="arrow"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -378,6 +558,7 @@
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
+          <a:headEnd type="arrow"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -428,6 +609,7 @@
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
+          <a:headEnd type="arrow"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -1030,6 +1212,7 @@
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
+          <a:headEnd type="arrow"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -1080,6 +1263,7 @@
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
+          <a:headEnd type="arrow"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -1130,6 +1314,7 @@
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
+          <a:headEnd type="arrow"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -2223,6 +2408,387 @@
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>131936</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>18158</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="400"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="11944349"/>
+          <a:ext cx="11314286" cy="7104759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="11315700"/>
+          <a:ext cx="1343025" cy="600076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>電流</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>-&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>電圧変換</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>56165</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>207782</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247775" y="20431125"/>
+          <a:ext cx="1665890" cy="1112657"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>電圧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>-&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>シリアル変換</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>ADC</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8562975" y="13687425"/>
+          <a:ext cx="733425" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="円/楕円 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6210300" y="17078325"/>
+          <a:ext cx="628650" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5695950" y="11696700"/>
+          <a:ext cx="723900" cy="5314950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線矢印コネクタ 50"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5695950" y="11715750"/>
+          <a:ext cx="2133600" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
@@ -2518,7 +3084,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:CW27"/>
+  <dimension ref="E3:CW105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2757,7 +3323,7 @@
     </row>
     <row r="12" spans="5:93" x14ac:dyDescent="0.15">
       <c r="Y12" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
@@ -2768,7 +3334,7 @@
     </row>
     <row r="18" spans="40:101" x14ac:dyDescent="0.15">
       <c r="AZ18" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA18" s="7"/>
       <c r="BB18" s="7"/>
@@ -2822,7 +3388,7 @@
     </row>
     <row r="19" spans="40:101" x14ac:dyDescent="0.15">
       <c r="AZ19" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA19" s="7"/>
       <c r="BB19" s="7"/>
@@ -2876,7 +3442,7 @@
     </row>
     <row r="25" spans="40:101" x14ac:dyDescent="0.15">
       <c r="AT25" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU25" s="3"/>
       <c r="AV25" s="3"/>
@@ -2893,11 +3459,301 @@
       </c>
       <c r="AO27" s="3"/>
       <c r="BG27" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
+    <row r="52" spans="21:47" s="10" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="21:47" x14ac:dyDescent="0.15">
+      <c r="U56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="7"/>
+      <c r="AG56" s="7"/>
+      <c r="AH56" s="7"/>
+      <c r="AI56" s="7"/>
+      <c r="AJ56" s="7"/>
+      <c r="AK56" s="7"/>
+      <c r="AL56" s="7"/>
+      <c r="AM56" s="7"/>
+      <c r="AN56" s="7"/>
+      <c r="AO56" s="7"/>
+      <c r="AP56" s="7"/>
+      <c r="AQ56" s="7"/>
+      <c r="AR56" s="7"/>
+      <c r="AS56" s="7"/>
+      <c r="AT56" s="7"/>
+      <c r="AU56" s="7"/>
+    </row>
+    <row r="93" spans="10:82" x14ac:dyDescent="0.15">
+      <c r="J93" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="9"/>
+      <c r="R93" s="9"/>
+      <c r="S93" s="9"/>
+      <c r="T93" s="9"/>
+      <c r="U93" s="9"/>
+      <c r="V93" s="9"/>
+      <c r="W93" s="9"/>
+      <c r="X93" s="9"/>
+      <c r="Y93" s="9"/>
+      <c r="Z93" s="9"/>
+      <c r="AA93" s="9"/>
+      <c r="AB93" s="9"/>
+      <c r="AC93" s="9"/>
+      <c r="AD93" s="9"/>
+      <c r="AE93" s="9"/>
+      <c r="AF93" s="9"/>
+      <c r="AG93" s="9"/>
+      <c r="AH93" s="9"/>
+      <c r="AI93" s="9"/>
+      <c r="AJ93" s="9"/>
+      <c r="AK93" s="9"/>
+      <c r="AL93" s="9"/>
+      <c r="AM93" s="9"/>
+      <c r="AN93" s="9"/>
+      <c r="AO93" s="9"/>
+      <c r="AP93" s="9"/>
+      <c r="AQ93" s="9"/>
+      <c r="AR93" s="9"/>
+      <c r="AS93" s="9"/>
+      <c r="AT93" s="9"/>
+      <c r="AU93" s="9"/>
+      <c r="AV93" s="9"/>
+      <c r="AW93" s="9"/>
+      <c r="AX93" s="9"/>
+      <c r="AY93" s="9"/>
+      <c r="AZ93" s="9"/>
+      <c r="BA93" s="9"/>
+      <c r="BB93" s="9"/>
+      <c r="BC93" s="9"/>
+      <c r="BD93" s="9"/>
+      <c r="BE93" s="9"/>
+      <c r="BF93" s="9"/>
+      <c r="BG93" s="9"/>
+      <c r="BH93" s="9"/>
+      <c r="BI93" s="9"/>
+      <c r="BJ93" s="9"/>
+      <c r="BK93" s="9"/>
+      <c r="BL93" s="9"/>
+      <c r="BM93" s="9"/>
+      <c r="BN93" s="9"/>
+      <c r="BO93" s="9"/>
+      <c r="BP93" s="9"/>
+      <c r="BQ93" s="9"/>
+      <c r="BR93" s="9"/>
+      <c r="BS93" s="9"/>
+      <c r="BT93" s="9"/>
+      <c r="BU93" s="9"/>
+      <c r="BV93" s="9"/>
+      <c r="BW93" s="9"/>
+      <c r="BX93" s="9"/>
+      <c r="BY93" s="9"/>
+      <c r="BZ93" s="9"/>
+      <c r="CA93" s="9"/>
+      <c r="CB93" s="9"/>
+      <c r="CC93" s="9"/>
+      <c r="CD93" s="9"/>
+    </row>
+    <row r="96" spans="10:82" s="10" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="100" spans="22:75" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V100" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="W100" s="9"/>
+      <c r="X100" s="9"/>
+      <c r="Y100" s="9"/>
+      <c r="Z100" s="9"/>
+      <c r="AA100" s="9"/>
+      <c r="AB100" s="9"/>
+      <c r="AC100" s="9"/>
+      <c r="AD100" s="9"/>
+      <c r="AE100" s="9"/>
+      <c r="AF100" s="9"/>
+      <c r="AG100" s="9"/>
+      <c r="AH100" s="9"/>
+      <c r="AI100" s="9"/>
+      <c r="AJ100" s="9"/>
+      <c r="AK100" s="9"/>
+      <c r="AL100" s="9"/>
+      <c r="AM100" s="9"/>
+      <c r="AN100" s="9"/>
+      <c r="AO100" s="9"/>
+      <c r="AP100" s="9"/>
+      <c r="AQ100" s="9"/>
+      <c r="AR100" s="9"/>
+      <c r="AS100" s="9"/>
+      <c r="AT100" s="9"/>
+      <c r="AU100" s="9"/>
+      <c r="AV100" s="9"/>
+      <c r="AW100" s="9"/>
+      <c r="AX100" s="9"/>
+      <c r="AY100" s="9"/>
+      <c r="AZ100" s="9"/>
+      <c r="BA100" s="9"/>
+      <c r="BB100" s="9"/>
+      <c r="BC100" s="9"/>
+      <c r="BD100" s="9"/>
+      <c r="BE100" s="9"/>
+      <c r="BF100" s="9"/>
+      <c r="BG100" s="9"/>
+      <c r="BH100" s="9"/>
+      <c r="BI100" s="9"/>
+      <c r="BJ100" s="9"/>
+      <c r="BK100" s="9"/>
+      <c r="BL100" s="9"/>
+      <c r="BM100" s="9"/>
+      <c r="BN100" s="9"/>
+      <c r="BO100" s="9"/>
+      <c r="BP100" s="9"/>
+      <c r="BQ100" s="9"/>
+      <c r="BR100" s="9"/>
+      <c r="BS100" s="9"/>
+      <c r="BT100" s="9"/>
+      <c r="BU100" s="9"/>
+      <c r="BV100" s="9"/>
+      <c r="BW100" s="9"/>
+    </row>
+    <row r="101" spans="22:75" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V101" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="W101" s="9"/>
+      <c r="X101" s="9"/>
+      <c r="Y101" s="9"/>
+      <c r="Z101" s="9"/>
+      <c r="AA101" s="9"/>
+      <c r="AB101" s="9"/>
+      <c r="AC101" s="9"/>
+      <c r="AD101" s="9"/>
+      <c r="AE101" s="9"/>
+      <c r="AF101" s="9"/>
+      <c r="AG101" s="9"/>
+      <c r="AH101" s="9"/>
+      <c r="AI101" s="9"/>
+      <c r="AJ101" s="9"/>
+      <c r="AK101" s="9"/>
+      <c r="AL101" s="9"/>
+      <c r="AM101" s="9"/>
+      <c r="AN101" s="9"/>
+      <c r="AO101" s="9"/>
+      <c r="AP101" s="9"/>
+      <c r="AQ101" s="9"/>
+      <c r="AR101" s="9"/>
+      <c r="AS101" s="9"/>
+      <c r="AT101" s="9"/>
+      <c r="AU101" s="9"/>
+      <c r="AV101" s="9"/>
+      <c r="AW101" s="9"/>
+      <c r="AX101" s="9"/>
+      <c r="AY101" s="9"/>
+      <c r="AZ101" s="9"/>
+      <c r="BA101" s="9"/>
+      <c r="BB101" s="9"/>
+      <c r="BC101" s="9"/>
+      <c r="BD101" s="9"/>
+      <c r="BE101" s="9"/>
+      <c r="BF101" s="9"/>
+      <c r="BG101" s="9"/>
+      <c r="BH101" s="9"/>
+      <c r="BI101" s="9"/>
+      <c r="BJ101" s="9"/>
+      <c r="BK101" s="9"/>
+      <c r="BL101" s="9"/>
+      <c r="BM101" s="9"/>
+      <c r="BN101" s="9"/>
+      <c r="BO101" s="9"/>
+      <c r="BP101" s="9"/>
+      <c r="BQ101" s="9"/>
+      <c r="BR101" s="9"/>
+      <c r="BS101" s="9"/>
+      <c r="BT101" s="9"/>
+      <c r="BU101" s="9"/>
+      <c r="BV101" s="9"/>
+      <c r="BW101" s="9"/>
+    </row>
+    <row r="102" spans="22:75" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V102" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W102" s="9"/>
+      <c r="X102" s="9"/>
+      <c r="Y102" s="9"/>
+      <c r="Z102" s="9"/>
+      <c r="AA102" s="9"/>
+      <c r="AB102" s="9"/>
+      <c r="AC102" s="9"/>
+      <c r="AD102" s="9"/>
+      <c r="AE102" s="9"/>
+      <c r="AF102" s="9"/>
+      <c r="AG102" s="9"/>
+      <c r="AH102" s="9"/>
+      <c r="AI102" s="9"/>
+      <c r="AJ102" s="9"/>
+      <c r="AK102" s="9"/>
+      <c r="AL102" s="9"/>
+      <c r="AM102" s="9"/>
+      <c r="AN102" s="9"/>
+      <c r="AO102" s="9"/>
+      <c r="AP102" s="9"/>
+      <c r="AQ102" s="9"/>
+      <c r="AR102" s="9"/>
+      <c r="AS102" s="9"/>
+      <c r="AT102" s="9"/>
+      <c r="AU102" s="9"/>
+      <c r="AV102" s="9"/>
+      <c r="AW102" s="9"/>
+      <c r="AX102" s="9"/>
+      <c r="AY102" s="9"/>
+      <c r="AZ102" s="9"/>
+      <c r="BA102" s="9"/>
+      <c r="BB102" s="9"/>
+      <c r="BC102" s="9"/>
+      <c r="BD102" s="9"/>
+      <c r="BE102" s="9"/>
+      <c r="BF102" s="9"/>
+      <c r="BG102" s="9"/>
+      <c r="BH102" s="9"/>
+      <c r="BI102" s="9"/>
+      <c r="BJ102" s="9"/>
+      <c r="BK102" s="9"/>
+      <c r="BL102" s="9"/>
+      <c r="BM102" s="9"/>
+      <c r="BN102" s="9"/>
+      <c r="BO102" s="9"/>
+      <c r="BP102" s="9"/>
+      <c r="BQ102" s="9"/>
+      <c r="BR102" s="9"/>
+      <c r="BS102" s="9"/>
+      <c r="BT102" s="9"/>
+      <c r="BU102" s="9"/>
+      <c r="BV102" s="9"/>
+      <c r="BW102" s="9"/>
+    </row>
+    <row r="105" spans="22:75" s="10" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="13">
+    <mergeCell ref="V102:BW102"/>
+    <mergeCell ref="V101:BW101"/>
+    <mergeCell ref="V100:BW100"/>
+    <mergeCell ref="U56:AU56"/>
+    <mergeCell ref="J93:CD93"/>
     <mergeCell ref="AN27:AO27"/>
     <mergeCell ref="E3:CO4"/>
     <mergeCell ref="BZ5:CO5"/>
@@ -2908,8 +3764,11 @@
     <mergeCell ref="AZ19:CW19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="J93" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>